--- a/Result/check3/2025-04-14.xlsx
+++ b/Result/check3/2025-04-14.xlsx
@@ -733,84 +733,84 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>6525</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>9533</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>9.40</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>22.0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>81.0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>2025-04-10</t>
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>32.24</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>14.54</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2932</t>
+          <t>3224</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,84 +975,84 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
+          <t>-2.69</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>3564</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>-2.95</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-66.43</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-87.86</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>5361</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-3.66</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-66.43</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-87.86</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>2025-04-11</t>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>3.98</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.58</t>
+          <t>15.18</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>83.38</t>
+          <t>88.72</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>354954</t>
+          <t>345662</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,84 +1217,84 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1292</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>773</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>2025-03-26</t>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>32.56</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1195</t>
+          <t>1313</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,84 +1459,84 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>44302</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>39989</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-9.26</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>2025-04-10</t>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.56</t>
+          <t>2.32</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>35.06</t>
+          <t>38.57</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>24.46</t>
+          <t>25.74</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>2768</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,84 +1701,84 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>-1.82</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>8103</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-0.96</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>11447</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>47.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>35.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>2025-04-10</t>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>17.09</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.48</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>230926</t>
+          <t>226794</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,84 +1943,84 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
+          <t>0.3</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>958</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>-1.50</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>1186</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>222.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB7" t="inlineStr">
         <is>
           <t>2025-04-14</t>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>66.02</t>
+          <t>69.13</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2429</t>
+          <t>2436</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,84 +2185,84 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>3278</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>4716</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-4.38</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
           <t>2025-04-14</t>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>14.03</t>
+          <t>14.67</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>37.24</t>
+          <t>38.54</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>16412</t>
+          <t>17158</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,84 +2427,84 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2233</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1548</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>2025-04-11</t>
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>5.7</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>15.79</t>
+          <t>16.16</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>106.38</t>
+          <t>107.63</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4648</t>
+          <t>4754</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2669,84 +2669,84 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
+          <t>-0.44</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2236</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>7745</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>267.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
           <t>2025-04-02</t>
@@ -2754,7 +2754,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2911,84 +2911,84 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-4.14</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-4.17</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1321</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-4.14</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-4.17</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>177.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
           <t>2025-04-14</t>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>24.48</t>
+          <t>25.96</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>17.2</t>
+          <t>18.54</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>11626</t>
+          <t>12330</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3153,84 +3153,84 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>3285</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>-1.39</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>4564</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-2.66</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-1.39</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-1.40</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>2025-04-14</t>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>17.88</t>
+          <t>18.02</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>30.42</t>
+          <t>32.21</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>104373</t>
+          <t>105229</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">

--- a/Result/check3/2025-04-14.xlsx
+++ b/Result/check3/2025-04-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>76</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6525</t>
+          <t>16218</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>-16.80</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>32.24</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3224</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>-3.8</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>60</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3564</t>
+          <t>2237</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.95</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.18</t>
+          <t>15.01</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>88.72</t>
+          <t>88.15</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>345662</t>
+          <t>341946</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>-2.94</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>773.0</t>
+          <t>39989.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,142 +1187,142 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>-9.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21.85</t>
+          <t>48.34</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>17.3</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>34050</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>45.95</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>1292</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>4.02</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>167229.0</t>
+          <t>2956117.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>全譜</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,57 +1332,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42.4</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-107.88%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>32.56</t>
+          <t>25.95</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1313</t>
+          <t>3043</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>全譜-電腦及週邊設備業-上櫃</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.94</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>39989.0</t>
+          <t>11446.517</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-9.26</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>48.34</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,32 +1459,32 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>59</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>44302</t>
+          <t>11791</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1494,42 +1494,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1544,87 +1544,87 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2956117.0</t>
+          <t>1410579433.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>38.57</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>25.74</t>
+          <t>12.38</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>230683</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>4950</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11446.517</t>
+          <t>1186.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>34.38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>16.55</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>8103</t>
+          <t>1793</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>222.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1781,92 +1781,92 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1410579433.0</t>
+          <t>35487.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>金耘國際</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.52%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>12.48</t>
+          <t>69.56</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>226794</t>
+          <t>2649</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>金耘國際-其他-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1186.0</t>
+          <t>4716.064</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>-4.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>34.38</t>
+          <t>57.52</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,77 +1943,77 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>7.65</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>53</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>958</t>
+          <t>7606</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.50</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>222.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2028,87 +2028,87 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>35487.0</t>
+          <t>348068330.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>金耘國際</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.19</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>15.52%</t>
+          <t>42.89%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>69.13</t>
+          <t>37.49</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2436</t>
+          <t>17770</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
+          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>金耘國際-其他-上櫃</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>其他平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>29.92</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -2135,222 +2135,222 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1548.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4716.064</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>87.5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-4.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>57.52</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1438</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-2.38</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>61.6</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>3278</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>348068330.0</t>
+          <t>642708.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>永信</t>
+          <t>宇峻</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>5.8</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>14.67</t>
+          <t>15.88</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>42.89%</t>
+          <t>98.53%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>38.54</t>
+          <t>107.52</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>17158</t>
+          <t>4674</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
+          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1548.0</t>
+          <t>7745.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,202 +2397,202 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>36.53</t>
+          <t>58.93</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-6.06</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1342</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-6.21</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>87.5</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2025-04-17</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>486424.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2233</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>642708.0</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>宇峻</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>16.16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>98.53%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>107.63</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4754</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>宇峻-文化創意業-上櫃</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7745.0</t>
+          <t>1320.947</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,104 +2639,104 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>58.93</t>
+          <t>35.81</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>82.5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-4.14</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-4.17</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>34.15</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-0.44</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2236</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>267.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
           <t>False</t>
@@ -2749,92 +2749,92 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>486424.0</t>
+          <t>203337043.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>為升</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26.26</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>31.32%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>18.52</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>12471</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>為升-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2231</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1320.947</t>
+          <t>4563.727</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>35.81</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,42 +2911,42 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>4532</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>-3.07</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2956,27 +2956,27 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-4.14</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2996,27 +2996,27 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>203337043.0</t>
+          <t>-239530633.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>為升</t>
+          <t>東元</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>25.96</t>
+          <t>17.91</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>31.32%</t>
+          <t>25.31%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>18.54</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>12330</t>
+          <t>104587</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
+          <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>為升-汽車工業-上市</t>
+          <t>東元-電機機械-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>30.48</t>
+          <t>35.79</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3090,248 +3090,6 @@
         </is>
       </c>
       <c r="AV11" t="inlineStr">
-        <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1504</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-1.92</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4563.727</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-2.66</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>3285</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-0.09</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-1.39</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-1.40</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>-239530633.0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>東元</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>18.02</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>25.31%</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>32.21</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>105229</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>東元-電機機械-上市</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>電機機械平</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>35.79</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr">
         <is>
           <t>** 電機機械 - 傳動元件、電控元件、冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程** 人工智慧 - 移動控制** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 風力發電 - 監控系統、電力系統</t>
         </is>

--- a/Result/check3/2025-04-14.xlsx
+++ b/Result/check3/2025-04-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV11"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>70</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>16218</t>
+          <t>13014</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-16.80</t>
+          <t>-6.63</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>28.96</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2896</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-3.8</t>
+          <t>-1.6</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>81</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2237</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.01</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>88.15</t>
+          <t>86.58</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>341946</t>
+          <t>349379</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>6228</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.94</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39989.0</t>
+          <t>773.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-9.26</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>48.34</t>
+          <t>18.06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>45.95</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>17.3</t>
+          <t>8.01</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>34050</t>
+          <t>4279</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>-22.12</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>27.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>96.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,32 +1297,32 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>96</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2956117.0</t>
+          <t>167229.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>全譜</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,57 +1332,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>42.4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>9.09%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>-107.88%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.95</t>
+          <t>31.94</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3043</t>
+          <t>1299</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>全譜-電腦及週邊設備業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>電腦及週邊設備業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>10.57</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-2.94</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11446.517</t>
+          <t>39989.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-9.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,32 +1459,32 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>10.6</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>210</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>11791</t>
+          <t>101264</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>-13.54</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1494,42 +1494,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1544,87 +1544,87 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1410579433.0</t>
+          <t>2956117.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>39.22</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>12.38</t>
+          <t>26.0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>230683</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1186.0</t>
+          <t>11446.517</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>34.38</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1793</t>
+          <t>5941</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>222.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1781,92 +1781,92 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>35487.0</t>
+          <t>1410579433.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>金耘國際</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>15.52%</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>1.15%</t>
-        </is>
-      </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>69.56</t>
+          <t>12.33</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2649</t>
+          <t>228009</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>金耘國際-其他-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -1893,222 +1893,222 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>4950</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1186.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2493</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4716.064</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>35487.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>金耘國際</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-4.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>57.52</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>61.6</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>7.65</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>7606</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>348068330.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>永信</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>15.19</t>
-        </is>
-      </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>42.89%</t>
+          <t>15.52%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>69.26</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>17770</t>
+          <t>2678</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
+          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>金耘國際-其他-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1548.0</t>
+          <t>4716.064</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>-4.38</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>36.53</t>
+          <t>57.52</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>87.5</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,72 +2185,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-1.03</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
           <t>0.57</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>1438</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>-2.38</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>93.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2265,92 +2265,92 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>642708.0</t>
+          <t>348068330.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>宇峻</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>15.88</t>
+          <t>15.06</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>98.53%</t>
+          <t>42.89%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>107.52</t>
+          <t>37.56</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4674</t>
+          <t>17610</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
+          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>宇峻-文化創意業-上櫃</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>29.92</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>7745.0</t>
+          <t>1548.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>58.93</t>
+          <t>36.53</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>34.15</t>
+          <t>87.5</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,72 +2427,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-6.06</t>
+          <t>-1.74</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>828</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2.18</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-6.21</t>
+          <t>-2.32</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>267.0</t>
+          <t>93.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>94.0</t>
+          <t>66.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2507,32 +2507,32 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>486424.0</t>
+          <t>642708.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>宇峻</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2542,57 +2542,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5.93</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.52</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>98.53%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>107.26</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>4568</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2231</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1320.947</t>
+          <t>7745.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>35.81</t>
+          <t>58.93</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>34.15</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,72 +2669,72 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>-7.73</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>2.18</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-4.14</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>267.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>94.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2749,92 +2749,92 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>94</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>203337043.0</t>
+          <t>486424.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>為升</t>
+          <t>杭特</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>26.26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>31.32%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>18.52</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>12471</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>為升-汽車工業-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>30.48</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -2861,235 +2861,477 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1320.947</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>82.5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1049</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-4.14</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-4.17</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>203337043.0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>為升</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>31.32%</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>8.59%</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>18.47</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>12823</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>為升-汽車工業-上市</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>汽車工業右下</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>** 汽車 - 整車組裝、修理及技術服務</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>1504</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>-1.92</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>4563.727</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-2.66</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>1.32</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>6.35</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>48.8</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0.2</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>4532</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>5764</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-3.07</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>-1.39</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>-1.40</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>34.0</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
+      <c r="Y12" t="inlineStr">
         <is>
           <t>33.0</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
+      <c r="Z12" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA11" t="inlineStr">
+      <c r="AA12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AB12" t="inlineStr">
         <is>
           <t>2025-04-14</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>2025-04-17</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>2025-04-18</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>-239530633.0</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>東元</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
+      <c r="AH12" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>4.5</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
         <is>
           <t>6.41</t>
         </is>
       </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>17.91</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
         <is>
           <t>25.31%</t>
         </is>
       </c>
-      <c r="AM11" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>10.00%</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>31.5</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>104587</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>31.44</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>106726</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
         <is>
           <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
         </is>
       </c>
-      <c r="AQ11" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
         <is>
           <t>東元-電機機械-上市</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>電機機械平</t>
         </is>
       </c>
-      <c r="AS11" t="inlineStr">
+      <c r="AS12" t="inlineStr">
         <is>
           <t>35.79</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AT12" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU11" t="inlineStr">
+      <c r="AU12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV11" t="inlineStr">
+      <c r="AV12" t="inlineStr">
         <is>
           <t>** 電機機械 - 傳動元件、電控元件、冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程** 人工智慧 - 移動控制** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 風力發電 - 監控系統、電力系統</t>
         </is>

--- a/Result/check3/2025-04-14.xlsx
+++ b/Result/check3/2025-04-14.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>13014</t>
+          <t>5742</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-6.63</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>31.84</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>3184</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-1.6</t>
+          <t>-1.33</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.34</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>349379</t>
+          <t>350308</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8.01</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>4279</t>
+          <t>729</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-22.12</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>31.94</t>
+          <t>32.28</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>18.67</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>101264</t>
+          <t>80371</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-13.54</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>39.22</t>
+          <t>43.12</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>26.22</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1706,12 +1706,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>5941</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9.32</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>69.26</t>
+          <t>69.44</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2678</t>
+          <t>2774</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>6.81</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4266</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>15.06</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>37.56</t>
+          <t>37.92</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>17610</t>
+          <t>17824</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-1.74</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>45</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>828</t>
+          <t>1791</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2452,7 +2452,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>15.52</t>
+          <t>16.61</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>107.26</t>
+          <t>107.89</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4568</t>
+          <t>4887</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-7.73</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2694,7 +2694,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9.34</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>758</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>18.47</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>12823</t>
+          <t>12542</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3153,17 +3153,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5764</t>
+          <t>5399</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>-4.28</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>18.28</t>
+          <t>17.99</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>31.44</t>
+          <t>31.24</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>106726</t>
+          <t>105015</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">

--- a/Result/check3/2025-04-14.xlsx
+++ b/Result/check3/2025-04-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV12"/>
+  <dimension ref="A1:AV11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>39.61</t>
+          <t>25.52</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>7.91</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>54</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>5742</t>
+          <t>12736</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>10.10</t>
+          <t>-6.46</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>31.84</t>
+          <t>29.68</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>15.11</t>
+          <t>14.61</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>2968</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>-7.91</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>89</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1314</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>-1.67</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.38</t>
+          <t>14.44</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>88.11</t>
+          <t>83.78</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>350308</t>
+          <t>328937</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6228</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.18</t>
+          <t>-2.94</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>773.0</t>
+          <t>39989.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,142 +1187,142 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>-9.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>18.06</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>19287</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>-9.81</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>45.95</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>9.37</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>729</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>6.48</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>96.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>167229.0</t>
+          <t>2956117.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>全譜</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1332,57 +1332,57 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38.38</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>9.09%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-107.88%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>32.28</t>
+          <t>25.36</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1318</t>
+          <t>2754</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>底片型掃描器47.76%、生物醫學產品39.93%、智慧商務10.44%、建材及工程1.88% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>全譜-電腦及週邊設備業-上櫃</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>10.57</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 印表機、傳真機、掃瞄器、多功能事務機、投影機** 建材營造 - 建材原料、機電工程、工程設計、工程承攬、裝潢業** 貿易百貨 - 貿易商、代理商、經銷商、零售通路** 醫療器材 - 生物檢測</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-2.94</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>39989.0</t>
+          <t>11446.517</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-9.26</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>39.49</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,32 +1459,32 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>18.67</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>80371</t>
+          <t>6990</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>11.41</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1494,42 +1494,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1544,87 +1544,87 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2956117.0</t>
+          <t>1410579433.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>43.12</t>
+          <t>17.07</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>26.22</t>
+          <t>12.24</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>3095</t>
+          <t>230683</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>4950</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11446.517</t>
+          <t>1186.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>34.38</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>16.55</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,72 +1701,72 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-1.28</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3703</t>
+          <t>1561</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>-1.00</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>222.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1781,92 +1781,92 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>38</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1410579433.0</t>
+          <t>35487.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>金耘國際</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15.52%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>12.36</t>
+          <t>67.02</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>228009</t>
+          <t>2480</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>金耘國際-其他-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>其他平</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 其他 - 其他</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1186.0</t>
+          <t>4716.064</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>-4.38</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>34.38</t>
+          <t>57.52</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,77 +1943,77 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>12.43</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2437</t>
+          <t>3415</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>222.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2028,87 +2028,87 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>35487.0</t>
+          <t>348068330.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>金耘國際</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.72</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>15.52%</t>
+          <t>42.89%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>69.44</t>
+          <t>37.49</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>2774</t>
+          <t>17211</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
+          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>金耘國際-其他-上櫃</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>29.92</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -2135,222 +2135,222 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1548.0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4716.064</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>87.5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-4.38</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>57.52</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-1.33</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>61.6</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>7.92</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>3243</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>348068330.0</t>
+          <t>642708.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>永信</t>
+          <t>宇峻</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>文化創意業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>5.72</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>7.14</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>15.24</t>
+          <t>16.1</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>42.89%</t>
+          <t>98.53%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>37.92</t>
+          <t>101.03</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>17824</t>
+          <t>4738</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
+          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>9.12</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1548.0</t>
+          <t>7745.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,202 +2397,202 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>7.99</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>36.53</t>
+          <t>58.93</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-15.37</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>596</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>-6.08</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>87.5</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2025-04-23</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>486424.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>1791</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>2025-04-11</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>642708.0</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>宇峻</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>文化創意業</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>16.61</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>98.53%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>107.89</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>宇峻-文化創意業-上櫃</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.12</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7745.0</t>
+          <t>1320.947</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,104 +2639,104 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>6.22</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>7.99</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>58.93</t>
+          <t>35.81</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>82.5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-1.65</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-4.14</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-4.17</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>34.15</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1951</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>267.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
       <c r="Z10" t="inlineStr">
         <is>
           <t>False</t>
@@ -2749,92 +2749,92 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>486424.0</t>
+          <t>203337043.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>為升</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25.22</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>31.32%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>17.65</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>11978</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>為升-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2231</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1320.947</t>
+          <t>4563.727</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>35.81</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>82.5</t>
+          <t>48.8</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,42 +2911,42 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>7.3</t>
+          <t>-2.52</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>2669</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-2.92</t>
+          <t>-2.00</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2956,27 +2956,27 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>-4.14</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>177.0</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2996,27 +2996,27 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>203337043.0</t>
+          <t>-239530633.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>為升</t>
+          <t>東元</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>26.41</t>
+          <t>17.44</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>31.32%</t>
+          <t>25.31%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>18.45</t>
+          <t>29.82</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>12542</t>
+          <t>101807</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
+          <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>為升-汽車工業-上市</t>
+          <t>東元-電機機械-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>30.48</t>
+          <t>35.79</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3090,248 +3090,6 @@
         </is>
       </c>
       <c r="AV11" t="inlineStr">
-        <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1504</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-1.92</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>4563.727</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-2.66</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>5399</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-4.28</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-1.39</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-1.40</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>2025-04-19</t>
-        </is>
-      </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE12" t="inlineStr">
-        <is>
-          <t>-239530633.0</t>
-        </is>
-      </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>東元</t>
-        </is>
-      </c>
-      <c r="AG12" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>17.99</t>
-        </is>
-      </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>25.31%</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>31.24</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>105015</t>
-        </is>
-      </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>東元-電機機械-上市</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>電機機械平</t>
-        </is>
-      </c>
-      <c r="AS12" t="inlineStr">
-        <is>
-          <t>35.79</t>
-        </is>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU12" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV12" t="inlineStr">
         <is>
           <t>** 電機機械 - 傳動元件、電控元件、冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程** 人工智慧 - 移動控制** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 風力發電 - 監控系統、電力系統</t>
         </is>

--- a/Result/check3/2025-04-14.xlsx
+++ b/Result/check3/2025-04-14.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>10.17</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>12736</t>
+          <t>6793</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-6.46</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>29.68</t>
+          <t>32.64</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>15.15</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-7.91</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>2162</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>328937</t>
+          <t>353096</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>19287</t>
+          <t>8778</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-9.81</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>38.38</t>
+          <t>42.21</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>26.45</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-1.82</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>28</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>6990</t>
+          <t>6191</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>-2.46</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>230683</t>
+          <t>226794</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>574</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>67.02</t>
+          <t>68.53</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2495</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>67</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>3415</t>
+          <t>5980</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-5.16</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>14.12</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>38.03</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>17211</t>
+          <t>16518</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>3.21</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>995</t>
+          <t>739</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.33</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.72</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>16.1</t>
+          <t>16.32</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>101.03</t>
+          <t>101.61</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4738</t>
+          <t>4802</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-15.37</t>
+          <t>-8.93</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>568</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-6.08</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>627</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>-4.37</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>25.22</t>
+          <t>25.1</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>17.65</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>11978</t>
+          <t>11922</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-2.52</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>1850</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2931,12 +2931,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>-2.00</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>17.44</t>
+          <t>17.56</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>29.82</t>
+          <t>30.99</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>101807</t>
+          <t>102555</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">

--- a/Result/check3/2025-04-14.xlsx
+++ b/Result/check3/2025-04-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV11"/>
+  <dimension ref="A1:AV8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10.17</t>
+          <t>18.28</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>51</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6793</t>
+          <t>8549</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>32.64</t>
+          <t>35.88</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>-2.41</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>74</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2162</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>353096</t>
+          <t>346592</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-2.94</t>
+          <t>-0.64</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>39989.0</t>
+          <t>11446.517</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-9.26</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>39.49</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>47.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,32 +1217,32 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>16.92</t>
+          <t>-1.93</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>8778</t>
+          <t>5306</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1252,42 +1252,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>3.53</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>47.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>63.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1307,82 +1307,82 @@
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2956117.0</t>
+          <t>1410579433.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>上海商銀</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>42.21</t>
+          <t>16.76</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>26.45</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>226551</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11446.517</t>
+          <t>4716.064</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-4.38</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>57.52</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>61.6</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,77 +1459,77 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>6191</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.46</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1539,32 +1539,32 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1410579433.0</t>
+          <t>348068330.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1574,57 +1574,57 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42.89%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>37.94</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>226794</t>
+          <t>16865</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>29.92</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>3546</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1186.0</t>
+          <t>1548.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,202 +1671,202 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>87.5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1910</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>2025-04-11</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>642708.0</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>宇峻</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>文化創意業</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
           <t>7.14</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>34.38</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>16.55</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>574</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-2.63</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>2.58</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>222.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>38.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>35487.0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>金耘國際</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>15.52%</t>
+          <t>98.53%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>26.68%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>68.53</t>
+          <t>101.55</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>4871</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
+          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>金耘國際-其他-上櫃</t>
+          <t>宇峻-文化創意業-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>其他平</t>
+          <t>文化創意業右上</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>30.66</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
         </is>
       </c>
     </row>
@@ -1893,222 +1893,222 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7745.0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>-3.64</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4716.064</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>2025-04-25</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>486424.0</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-4.38</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>57.52</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>61.6</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>5980</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2.06</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>-5.16</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>348068330.0</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>永信</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>14.12</t>
-        </is>
-      </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>42.89%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>38.03</t>
+          <t>70.67</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>16518</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2123,7 +2123,7 @@
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3546</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>-1.92</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1548.0</t>
+          <t>4563.727</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,202 +2155,202 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.49</t>
+          <t>-2.66</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>36.53</t>
+          <t>11.51</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>48.8</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>-3.28</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2677</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>-2.01</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-1.39</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>87.5</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>739</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>93.0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>33</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>642708.0</t>
+          <t>-239530633.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>宇峻</t>
+          <t>東元</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>文化創意業</t>
+          <t>電機機械</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>5.64</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>7.14</t>
+          <t>6.41</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>16.32</t>
+          <t>17.31</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>98.53%</t>
+          <t>25.31%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>26.68%</t>
+          <t>10.00%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>101.61</t>
+          <t>31.14</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>4802</t>
+          <t>101058</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>網路遊戲90.18%、權利金收入8.40%、其他1.42% (2024年)</t>
+          <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>宇峻-文化創意業-上櫃</t>
+          <t>東元-電機機械-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>文化創意業右上</t>
+          <t>電機機械平</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>30.66</t>
+          <t>35.79</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2364,732 +2364,6 @@
         </is>
       </c>
       <c r="AV8" t="inlineStr">
-        <is>
-          <t>** 文化創意業 - 數位內容產業** 休閒娛樂 - 設計開發</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3297</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7745.0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>58.93</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>34.15</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-8.93</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>568</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>267.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>94.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>486424.0</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>杭特</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>33.49%</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>-25.64%</t>
-        </is>
-      </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>68.43</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>1130</t>
-        </is>
-      </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>杭特-光電業-上櫃</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>光電業右上</t>
-        </is>
-      </c>
-      <c r="AS9" t="inlineStr">
-        <is>
-          <t>15.63</t>
-        </is>
-      </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU9" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2231</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1320.947</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>35.81</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>82.5</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>627</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-4.37</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-4.14</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-4.17</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>177.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE10" t="inlineStr">
-        <is>
-          <t>203337043.0</t>
-        </is>
-      </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>為升</t>
-        </is>
-      </c>
-      <c r="AG10" t="inlineStr">
-        <is>
-          <t>汽車工業</t>
-        </is>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>10.45</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>25.1</t>
-        </is>
-      </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>31.32%</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>8.59%</t>
-        </is>
-      </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>18.11</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>11922</t>
-        </is>
-      </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>為升-汽車工業-上市</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>汽車工業右下</t>
-        </is>
-      </c>
-      <c r="AS10" t="inlineStr">
-        <is>
-          <t>30.48</t>
-        </is>
-      </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU10" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1504</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>-1.92</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4563.727</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-2.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>11.51</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>48.8</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-1.77</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>1850</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-1.98</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-1.39</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-1.40</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>34.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>2025-04-14</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>-239530633.0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>東元</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>電機機械</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>6.41</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>17.56</t>
-        </is>
-      </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>25.31%</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>30.99</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>102555</t>
-        </is>
-      </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>東元-電機機械-上市</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>電機機械平</t>
-        </is>
-      </c>
-      <c r="AS11" t="inlineStr">
-        <is>
-          <t>35.79</t>
-        </is>
-      </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU11" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV11" t="inlineStr">
         <is>
           <t>** 電機機械 - 傳動元件、電控元件、冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程** 人工智慧 - 移動控制** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 風力發電 - 監控系統、電力系統</t>
         </is>

--- a/Result/check3/2025-04-14.xlsx
+++ b/Result/check3/2025-04-14.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>25.52</t>
+          <t>25.42</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>18.28</t>
+          <t>25.66</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>361</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>8549</t>
+          <t>37501</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>7.30</t>
+          <t>6.94</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>35.88</t>
+          <t>39.44</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>15.53</t>
+          <t>16.02</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3588</t>
+          <t>3944</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-2.41</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>72</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1613</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.14</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>15.54</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>88.64</t>
+          <t>91.06</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>346592</t>
+          <t>354025</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.64</t>
+          <t>-2.94</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11446.517</t>
+          <t>39989.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>-9.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>17.34</t>
+          <t>39.49</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,32 +1217,32 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1.93</t>
+          <t>18.8</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>236</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>5306</t>
+          <t>36851</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-7.17</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1252,42 +1252,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>63.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1302,87 +1302,87 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>63</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1410579433.0</t>
+          <t>2956117.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>16.76</t>
+          <t>43.18</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>12.32</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>226551</t>
+          <t>3099</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>2786</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-1.26</t>
+          <t>4.14</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>14.42</t>
+          <t>14.9</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>37.94</t>
+          <t>38.34</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>16865</t>
+          <t>17424</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1910</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.56</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>16.55</t>
+          <t>16.61</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>101.55</t>
+          <t>101.52</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4871</t>
+          <t>4887</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-3.64</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>989</t>
+          <t>2293</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>70.67</t>
+          <t>75.24</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-3.28</t>
+          <t>-3.61</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2677</t>
+          <t>2288</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-2.01</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-25</t>
+          <t>2025-04-26</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>17.31</t>
+          <t>17.25</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>31.14</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>101058</t>
+          <t>100737</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">

--- a/Result/check3/2025-04-14.xlsx
+++ b/Result/check3/2025-04-14.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>25.42</t>
+          <t>25.08</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>25.66</t>
+          <t>22.6</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>134</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>37501</t>
+          <t>38017</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>-1.48</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>39.44</t>
+          <t>37.88</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>16.02</t>
+          <t>16.29</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3944</t>
+          <t>3788</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0.26</t>
+          <t>-0.53</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1069</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>-1.05</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.54</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>91.06</t>
+          <t>92.79</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>354025</t>
+          <t>353096</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>26.13</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>73</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>36851</t>
+          <t>51498</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-7.17</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>43.18</t>
+          <t>47.47</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>27.76</t>
+          <t>28.87</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3099</t>
+          <t>3407</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.81</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>39</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2786</t>
+          <t>3485</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>4.14</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>14.9</t>
+          <t>15.26</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>38.34</t>
+          <t>38.26</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>17424</t>
+          <t>17850</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>1678</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>16.61</t>
+          <t>16.97</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>101.52</t>
+          <t>100.42</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>4993</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2293</t>
+          <t>1128</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>75.24</t>
+          <t>75.14</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>1244</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-3.61</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2288</t>
+          <t>2772</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2205,12 +2205,12 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-26</t>
+          <t>2025-04-29</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>17.25</t>
+          <t>17.77</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>31.9</t>
+          <t>32.32</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>100737</t>
+          <t>103732</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">

--- a/Result/check3/2025-04-14.xlsx
+++ b/Result/check3/2025-04-14.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV8"/>
+  <dimension ref="A1:AV9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>22.6</t>
+          <t>29.52</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>83</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>38017</t>
+          <t>19094</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-1.48</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>37.88</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>16.68</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3788</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>95.62</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>353096</t>
+          <t>358671</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>26.13</t>
+          <t>26.73</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>276</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>51498</t>
+          <t>84019</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>-7.59</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>47.47</t>
+          <t>47.86</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8.06</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>3485</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>38.26</t>
+          <t>38.69</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>17850</t>
+          <t>17690</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>7.8</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1678</t>
+          <t>1289</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>-0.29</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>17.13</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>100.42</t>
+          <t>100.83</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4993</t>
+          <t>5041</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>2190</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>78.33</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2135,235 +2135,477 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2231</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1320.947</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>35.81</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>82.5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>-4.14</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>-4.17</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>203337043.0</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>為升</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>汽車工業</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>31.32%</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>8.59%</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>12866</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>為升-汽車工業-上市</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>汽車工業右下</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>** 汽車 - 整車組裝、修理及技術服務</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-04-14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>1504</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>-1.92</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>4563.727</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-2.66</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>1.32</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>11.51</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>0.96</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>48.8</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-0.62</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2772</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>3381</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>1.36</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.6</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>0.02</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>-0.04</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>0.01</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>-1.39</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>-1.40</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>34.0</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
+      <c r="Y9" t="inlineStr">
         <is>
           <t>33.0</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
+      <c r="Z9" t="inlineStr">
         <is>
           <t>False</t>
         </is>
       </c>
-      <c r="AA8" t="inlineStr">
+      <c r="AA9" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AB9" t="inlineStr">
         <is>
           <t>2025-04-14</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>-239530633.0</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
+      <c r="AF9" t="inlineStr">
         <is>
           <t>東元</t>
         </is>
       </c>
-      <c r="AG8" t="inlineStr">
+      <c r="AG9" t="inlineStr">
         <is>
           <t>電機機械</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AH9" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>6.41</t>
         </is>
       </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>17.77</t>
-        </is>
-      </c>
-      <c r="AL8" t="inlineStr">
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
         <is>
           <t>25.31%</t>
         </is>
       </c>
-      <c r="AM8" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>10.00%</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>32.32</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>103732</t>
-        </is>
-      </c>
-      <c r="AP8" t="inlineStr">
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>105229</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
         <is>
           <t>機電系統57.90%、勞務13.79%、工程13.74%、家用電器9.97%、其他租賃業務2.33%、其他2.27% (2024年)</t>
         </is>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>東元-電機機械-上市</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>電機機械平</t>
         </is>
       </c>
-      <c r="AS8" t="inlineStr">
+      <c r="AS9" t="inlineStr">
         <is>
           <t>35.79</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr">
+      <c r="AT9" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU8" t="inlineStr">
+      <c r="AU9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV8" t="inlineStr">
+      <c r="AV9" t="inlineStr">
         <is>
           <t>** 電機機械 - 傳動元件、電控元件、冷凍空調設備及零件、機電系統工程** 建材營造 - 機電工程** 人工智慧 - 移動控制** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 風力發電 - 監控系統、電力系統</t>
         </is>
